--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclancy1\Desktop\persistence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0513622F-8AB9-48FD-9C33-188CE3ACD52D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC22746-985B-40AD-9276-73E48C1BEDB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19280" windowHeight="5440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19280" windowHeight="5440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NET2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="159">
   <si>
     <t>Status</t>
   </si>
@@ -503,7 +503,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1038,32 +1038,14 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1100,18 +1082,6 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,6 +1100,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1484,925 +1484,931 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="5.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="10"/>
-    <col min="11" max="16384" width="8.7265625" style="15"/>
+    <col min="1" max="1" width="17.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.08984375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="4"/>
+    <col min="11" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="6">
+        <v>78</v>
+      </c>
+      <c r="D6" s="6">
+        <v>87</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="6">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>56</v>
+      </c>
+      <c r="D9" s="6">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6">
+        <v>87</v>
+      </c>
+      <c r="D11" s="6">
+        <v>87</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6">
+        <v>134</v>
+      </c>
+      <c r="D12" s="6">
+        <v>111</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6">
+        <v>54</v>
+      </c>
+      <c r="D14" s="6">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6">
+        <v>43</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="6">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6">
+        <v>17</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="6">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6">
+        <v>24</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="6">
+        <v>169</v>
+      </c>
+      <c r="D20" s="6">
+        <v>135</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="6">
+        <v>76</v>
+      </c>
+      <c r="D21" s="6">
+        <v>48</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="6">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6">
         <v>41</v>
       </c>
-      <c r="D3" s="12">
-        <v>29</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="E23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="6">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="D24" s="6">
+        <v>17</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="6">
+        <v>13</v>
+      </c>
+      <c r="D25" s="6">
         <v>15</v>
       </c>
-      <c r="C4" s="12">
-        <v>39</v>
-      </c>
-      <c r="D4" s="12">
-        <v>26</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="6">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="6">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="E27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="6">
+        <v>48</v>
+      </c>
+      <c r="D28" s="6">
+        <v>33</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="6">
+        <v>48</v>
+      </c>
+      <c r="D29" s="6">
+        <v>47</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="6">
+        <v>46</v>
+      </c>
+      <c r="D30" s="6">
+        <v>42</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="6">
+        <v>21</v>
+      </c>
+      <c r="D31" s="6">
+        <v>33</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="6">
+        <v>20</v>
+      </c>
+      <c r="D32" s="6">
+        <v>18</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="6">
+        <v>69</v>
+      </c>
+      <c r="D33" s="6">
+        <v>77</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="6">
         <v>23</v>
       </c>
-      <c r="D5" s="12">
-        <v>25</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="12">
-        <v>35</v>
-      </c>
-      <c r="D6" s="12">
-        <v>35</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D34" s="6">
+        <v>34</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="6">
+        <v>4</v>
+      </c>
+      <c r="D35" s="6">
+        <v>21</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="12">
-        <v>78</v>
-      </c>
-      <c r="D7" s="12">
-        <v>87</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="12">
-        <v>18</v>
-      </c>
-      <c r="D8" s="12">
-        <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="12">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12">
-        <v>36</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12">
-        <v>56</v>
-      </c>
-      <c r="D10" s="12">
-        <v>67</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="12">
-        <v>15</v>
-      </c>
-      <c r="D11" s="12">
-        <v>20</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="12">
-        <v>95</v>
-      </c>
-      <c r="D12" s="12">
-        <v>94</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="6">
+        <v>66</v>
+      </c>
+      <c r="D36" s="6">
+        <v>50</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="6">
+        <v>32</v>
+      </c>
+      <c r="D37" s="6">
+        <v>45</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="12">
+        <v>187</v>
+      </c>
+      <c r="D38" s="12">
         <v>170</v>
       </c>
-      <c r="D13" s="12">
-        <v>131</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="12">
-        <v>34</v>
-      </c>
-      <c r="D14" s="12">
-        <v>21</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="12">
-        <v>54</v>
-      </c>
-      <c r="D15" s="12">
-        <v>35</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="12">
-        <v>10</v>
-      </c>
-      <c r="D16" s="12">
-        <v>18</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="12">
-        <v>49</v>
-      </c>
-      <c r="D17" s="12">
-        <v>43</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="12">
-        <v>15</v>
-      </c>
-      <c r="D18" s="12">
-        <v>13</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="12">
-        <v>15</v>
-      </c>
-      <c r="D19" s="12">
-        <v>17</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="12">
-        <v>40</v>
-      </c>
-      <c r="D20" s="12">
-        <v>26</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="12">
-        <v>183</v>
-      </c>
-      <c r="D21" s="12">
-        <v>153</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="12">
-        <v>76</v>
-      </c>
-      <c r="D22" s="12">
-        <v>48</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="12">
-        <v>36</v>
-      </c>
-      <c r="D23" s="12">
-        <v>27</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="12">
-        <v>43</v>
-      </c>
-      <c r="D24" s="12">
-        <v>41</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="12">
-        <v>14</v>
-      </c>
-      <c r="D25" s="12">
-        <v>17</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="12">
-        <v>13</v>
-      </c>
-      <c r="D26" s="12">
-        <v>15</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="12">
-        <v>21</v>
-      </c>
-      <c r="D27" s="12">
-        <v>22</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="12">
-        <v>19</v>
-      </c>
-      <c r="D28" s="12">
-        <v>9</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="12">
-        <v>36</v>
-      </c>
-      <c r="D29" s="12">
-        <v>16</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="12">
-        <v>48</v>
-      </c>
-      <c r="D30" s="12">
-        <v>33</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="12">
-        <v>48</v>
-      </c>
-      <c r="D31" s="12">
-        <v>47</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="12">
-        <v>46</v>
-      </c>
-      <c r="D32" s="12">
-        <v>42</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="12">
-        <v>21</v>
-      </c>
-      <c r="D33" s="12">
-        <v>33</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="12">
-        <v>20</v>
-      </c>
-      <c r="D34" s="12">
-        <v>18</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="12">
-        <v>69</v>
-      </c>
-      <c r="D35" s="12">
-        <v>77</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="12">
-        <v>23</v>
-      </c>
-      <c r="D36" s="12">
-        <v>34</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="12">
-        <v>4</v>
-      </c>
-      <c r="D37" s="12">
-        <v>21</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="12">
-        <v>66</v>
-      </c>
-      <c r="D38" s="12">
-        <v>50</v>
-      </c>
       <c r="E38" s="13" t="s">
         <v>153</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>1</v>
@@ -2411,67 +2417,17 @@
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="12">
-        <v>32</v>
-      </c>
-      <c r="D39" s="12">
-        <v>45</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="18">
-        <v>228</v>
-      </c>
-      <c r="D40" s="18">
-        <v>221</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
     </row>
   </sheetData>
-  <sortState ref="A3:I41">
-    <sortCondition ref="A5"/>
+  <sortState ref="A3:I39">
+    <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="C1:D1"/>
@@ -2484,850 +2440,897 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I35"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="10"/>
-    <col min="6" max="6" width="5.81640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="10"/>
-    <col min="9" max="9" width="7.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="10"/>
-    <col min="11" max="16384" width="8.7265625" style="15"/>
+    <col min="1" max="1" width="20.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="4"/>
+    <col min="6" max="6" width="5.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="4"/>
+    <col min="9" max="9" width="7.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="4"/>
+    <col min="11" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="35" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C5" s="22">
         <v>16</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D5" s="22">
         <v>10</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="E5" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C7" s="6">
         <v>11</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="6">
         <v>15</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="E8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="6">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="E9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C12" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C13" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="6">
         <v>4</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E13" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C15" s="6">
         <v>5</v>
       </c>
-      <c r="D14" s="12">
-        <v>7</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="D15" s="6">
+        <v>7</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="12">
-        <v>7</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C16" s="6">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6">
         <v>11</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C17" s="6">
         <v>2</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="E17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C18" s="6">
         <v>4</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="E18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="6">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D20" s="6">
         <v>3</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="E20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C21" s="6">
         <v>10</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D21" s="6">
         <v>10</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="E21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C22" s="6">
         <v>4</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D22" s="6">
         <v>3</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
         <v>0</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="E23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C24" s="6">
         <v>12</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D24" s="6">
         <v>13</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+      <c r="G24" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C25" s="6">
         <v>5</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D25" s="6">
         <v>9</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B26" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C26" s="6">
         <v>14</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D26" s="6">
         <v>12</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B27" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C27" s="6">
         <v>4</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D27" s="6">
         <v>2</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="E27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C28" s="6">
         <v>0</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D28" s="6">
         <v>3</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="E28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B29" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C29" s="6">
         <v>2</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D29" s="6">
         <v>3</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B30" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C30" s="6">
         <v>10</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D30" s="6">
         <v>5</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="E30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B31" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C31" s="6">
         <v>3</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D31" s="6">
         <v>4</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+      <c r="E31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="12">
-        <v>7</v>
-      </c>
-      <c r="D30" s="12">
+      <c r="C32" s="6">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6">
         <v>6</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="E32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B33" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C33" s="6">
         <v>5</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D33" s="6">
         <v>6</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E33" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="12">
-        <v>7</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="C34" s="6">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6">
         <v>11</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
+      <c r="E34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B35" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C35" s="6">
         <v>2</v>
       </c>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="30" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B36" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="32">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32">
+      <c r="C36" s="22">
+        <v>1</v>
+      </c>
+      <c r="D36" s="22">
         <v>0</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E36" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="16" t="s">
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B37" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C37" s="12">
         <v>6</v>
       </c>
-      <c r="D35" s="18">
-        <v>7</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="D37" s="12">
+        <v>7</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="10"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A3:I36">
-    <sortCondition ref="A5"/>
+  <sortState ref="A4:I37">
+    <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="B1:B2"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclancy1\Desktop\persistence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niallclancy/Desktop/persistence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC22746-985B-40AD-9276-73E48C1BEDB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFE3EC4-97E2-224D-A6A6-DF0F055E05A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19280" windowHeight="5440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11680" yWindow="740" windowWidth="14740" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NET2" sheetId="1" r:id="rId1"/>
@@ -1036,7 +1036,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1085,46 +1085,34 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1189,9 +1177,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1229,7 +1217,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1335,7 +1323,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1477,7 +1465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1488,69 +1476,69 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="5.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="4"/>
-    <col min="11" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="17.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="4"/>
+    <col min="9" max="9" width="8.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="J1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1569,13 +1557,13 @@
       <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1594,15 +1582,15 @@
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1620,10 +1608,10 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>62</v>
       </c>
@@ -1640,13 +1628,13 @@
         <v>154</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>129</v>
       </c>
@@ -1666,10 +1654,10 @@
         <v>7</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1689,10 +1677,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1710,10 +1698,10 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1733,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1756,10 +1744,10 @@
         <v>7</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -1778,13 +1766,13 @@
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -1804,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1826,13 +1814,13 @@
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1851,13 +1839,13 @@
       <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1874,13 +1862,13 @@
         <v>154</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -1899,15 +1887,15 @@
       <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
@@ -1927,10 +1915,10 @@
         <v>7</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
@@ -1949,15 +1937,15 @@
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>66</v>
       </c>
@@ -1976,13 +1964,13 @@
       <c r="F20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
@@ -2001,13 +1989,13 @@
       <c r="F21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
@@ -2026,13 +2014,13 @@
       <c r="F22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
@@ -2051,13 +2039,13 @@
       <c r="F23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>77</v>
       </c>
@@ -2076,13 +2064,13 @@
       <c r="F24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
@@ -2099,13 +2087,13 @@
         <v>154</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>156</v>
       </c>
@@ -2124,15 +2112,15 @@
       <c r="F26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G26" s="8"/>
+      <c r="I26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>87</v>
       </c>
@@ -2152,10 +2140,10 @@
         <v>7</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>89</v>
       </c>
@@ -2174,15 +2162,15 @@
       <c r="F28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>97</v>
       </c>
@@ -2200,10 +2188,10 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
@@ -2221,10 +2209,10 @@
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>99</v>
       </c>
@@ -2244,10 +2232,10 @@
         <v>7</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
@@ -2267,10 +2255,10 @@
         <v>4</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>111</v>
       </c>
@@ -2290,10 +2278,10 @@
         <v>7</v>
       </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>115</v>
       </c>
@@ -2312,13 +2300,13 @@
       <c r="F34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>117</v>
       </c>
@@ -2335,13 +2323,13 @@
         <v>154</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>123</v>
       </c>
@@ -2360,13 +2348,13 @@
       <c r="F36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>109</v>
       </c>
@@ -2385,13 +2373,13 @@
       <c r="F37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G37" s="8"/>
+      <c r="I37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>137</v>
       </c>
@@ -2410,32 +2398,32 @@
       <c r="F38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G38" s="14"/>
+      <c r="I38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
       <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
     </row>
   </sheetData>
-  <sortState ref="A3:I39">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G39">
     <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
@@ -2449,139 +2437,138 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="4"/>
-    <col min="6" max="6" width="5.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="4"/>
-    <col min="9" max="9" width="7.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="4"/>
-    <col min="11" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="20.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="4"/>
+    <col min="6" max="6" width="5.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="4"/>
+    <col min="9" max="9" width="9.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="4"/>
+    <col min="11" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="J1" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+    </row>
+    <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
-        <v>41</v>
-      </c>
-      <c r="D3" s="6">
-        <v>29</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="6">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="22">
-        <v>16</v>
-      </c>
-      <c r="D5" s="22">
-        <v>10</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2598,13 +2585,13 @@
         <v>154</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -2624,10 +2611,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -2646,13 +2633,13 @@
       <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G8" s="19"/>
+      <c r="I8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -2671,13 +2658,13 @@
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G9" s="19"/>
+      <c r="I9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
@@ -2696,15 +2683,15 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G10" s="19"/>
+      <c r="I10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2723,13 +2710,13 @@
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G11" s="19"/>
+      <c r="I11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -2747,10 +2734,10 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -2768,10 +2755,10 @@
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
       <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -2789,10 +2776,10 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -2812,12 +2799,12 @@
         <v>7</v>
       </c>
       <c r="G15" s="19"/>
-      <c r="H15" s="19" t="s">
-        <v>1</v>
-      </c>
       <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J15" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>64</v>
       </c>
@@ -2834,13 +2821,13 @@
         <v>154</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -2860,10 +2847,10 @@
         <v>4</v>
       </c>
       <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>81</v>
       </c>
@@ -2882,15 +2869,15 @@
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G18" s="19"/>
+      <c r="I18" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>155</v>
       </c>
@@ -2910,10 +2897,10 @@
         <v>7</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>84</v>
       </c>
@@ -2933,10 +2920,10 @@
         <v>7</v>
       </c>
       <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>91</v>
       </c>
@@ -2956,10 +2943,10 @@
         <v>7</v>
       </c>
       <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>93</v>
       </c>
@@ -2977,10 +2964,10 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
@@ -3000,10 +2987,10 @@
         <v>7</v>
       </c>
       <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>158</v>
       </c>
@@ -3022,13 +3009,13 @@
       <c r="F24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G24" s="19"/>
+      <c r="I24" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>101</v>
       </c>
@@ -3048,10 +3035,10 @@
         <v>7</v>
       </c>
       <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
       <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>103</v>
       </c>
@@ -3068,13 +3055,13 @@
         <v>154</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G26" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>113</v>
       </c>
@@ -3093,13 +3080,13 @@
       <c r="F27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G27" s="19"/>
+      <c r="I27" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>119</v>
       </c>
@@ -3119,10 +3106,10 @@
         <v>7</v>
       </c>
       <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
       <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>125</v>
       </c>
@@ -3140,10 +3127,10 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
       <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>127</v>
       </c>
@@ -3163,10 +3150,10 @@
         <v>7</v>
       </c>
       <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
       <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>121</v>
       </c>
@@ -3186,10 +3173,10 @@
         <v>7</v>
       </c>
       <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
       <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3209,10 +3196,10 @@
         <v>4</v>
       </c>
       <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
       <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>131</v>
       </c>
@@ -3229,13 +3216,13 @@
         <v>154</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G33" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>135</v>
       </c>
@@ -3254,13 +3241,13 @@
       <c r="F34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G34" s="19"/>
+      <c r="I34" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>133</v>
       </c>
@@ -3277,34 +3264,34 @@
         <v>154</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
+      <c r="G35" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="22">
-        <v>1</v>
-      </c>
-      <c r="D36" s="22">
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
         <v>0</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>141</v>
       </c>
@@ -3321,24 +3308,24 @@
         <v>154</v>
       </c>
       <c r="F37" s="13"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A4:I37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G37">
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niallclancy/Desktop/persistence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFE3EC4-97E2-224D-A6A6-DF0F055E05A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D8DE50-8D06-3944-BC68-BCFA9FAEA71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="740" windowWidth="14740" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13580" yWindow="740" windowWidth="14740" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NET2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="157">
   <si>
     <t>Status</t>
   </si>
@@ -195,12 +195,6 @@
   </si>
   <si>
     <t>Etheostoma nigrum</t>
-  </si>
-  <si>
-    <t>Burbot</t>
-  </si>
-  <si>
-    <t>Lota lota</t>
   </si>
   <si>
     <t>Lake Chub</t>
@@ -1476,7 +1470,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1496,40 +1490,40 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -1552,7 +1546,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>7</v>
@@ -1577,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
@@ -1604,7 +1598,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
@@ -1613,10 +1607,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="6">
         <v>78</v>
@@ -1625,7 +1619,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="s">
@@ -1636,10 +1630,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="6">
         <v>18</v>
@@ -1648,7 +1642,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>7</v>
@@ -1671,7 +1665,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
@@ -1694,7 +1688,7 @@
         <v>67</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
@@ -1715,7 +1709,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
@@ -1738,7 +1732,7 @@
         <v>87</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>7</v>
@@ -1761,7 +1755,7 @@
         <v>111</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>7</v>
@@ -1786,7 +1780,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>4</v>
@@ -1809,7 +1803,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
@@ -1834,7 +1828,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>7</v>
@@ -1859,7 +1853,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8" t="s">
@@ -1882,7 +1876,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>7</v>
@@ -1909,7 +1903,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
@@ -1920,10 +1914,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6">
         <v>36</v>
@@ -1932,7 +1926,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
@@ -1947,10 +1941,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="6">
         <v>169</v>
@@ -1959,7 +1953,7 @@
         <v>135</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
@@ -1972,10 +1966,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="6">
         <v>76</v>
@@ -1984,7 +1978,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>7</v>
@@ -1997,10 +1991,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="6">
         <v>36</v>
@@ -2009,10 +2003,10 @@
         <v>27</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" s="8"/>
       <c r="I22" s="8" t="s">
@@ -2022,10 +2016,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="6">
         <v>43</v>
@@ -2034,7 +2028,7 @@
         <v>41</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>4</v>
@@ -2047,10 +2041,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="6">
         <v>14</v>
@@ -2059,7 +2053,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
@@ -2072,10 +2066,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="6">
         <v>13</v>
@@ -2084,7 +2078,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
@@ -2095,10 +2089,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="6">
         <v>19</v>
@@ -2107,7 +2101,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>7</v>
@@ -2122,10 +2116,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="6">
         <v>36</v>
@@ -2134,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>7</v>
@@ -2145,10 +2139,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="6">
         <v>48</v>
@@ -2157,7 +2151,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>7</v>
@@ -2172,10 +2166,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="6">
         <v>48</v>
@@ -2184,7 +2178,7 @@
         <v>47</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
@@ -2193,10 +2187,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="6">
         <v>46</v>
@@ -2205,7 +2199,7 @@
         <v>42</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
@@ -2214,10 +2208,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" s="6">
         <v>21</v>
@@ -2226,7 +2220,7 @@
         <v>33</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>7</v>
@@ -2237,10 +2231,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" s="6">
         <v>20</v>
@@ -2249,7 +2243,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>4</v>
@@ -2260,10 +2254,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C33" s="6">
         <v>69</v>
@@ -2272,7 +2266,7 @@
         <v>77</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>7</v>
@@ -2283,10 +2277,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C34" s="6">
         <v>23</v>
@@ -2295,7 +2289,7 @@
         <v>34</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>7</v>
@@ -2308,10 +2302,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" s="6">
         <v>4</v>
@@ -2320,7 +2314,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="8" t="s">
@@ -2331,10 +2325,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C36" s="6">
         <v>66</v>
@@ -2343,7 +2337,7 @@
         <v>50</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>4</v>
@@ -2356,10 +2350,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C37" s="6">
         <v>32</v>
@@ -2368,7 +2362,7 @@
         <v>45</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>7</v>
@@ -2381,10 +2375,10 @@
     </row>
     <row r="38" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C38" s="12">
         <v>187</v>
@@ -2393,7 +2387,7 @@
         <v>170</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>7</v>
@@ -2434,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2457,39 +2451,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
@@ -2511,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>7</v>
@@ -2536,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
@@ -2559,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>7</v>
@@ -2582,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="19" t="s">
@@ -2605,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>4</v>
@@ -2616,19 +2610,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>7</v>
@@ -2641,19 +2635,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>7</v>
@@ -2662,23 +2656,25 @@
       <c r="I9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="19" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
@@ -2687,50 +2683,44 @@
       <c r="I10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>1</v>
-      </c>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="19"/>
-      <c r="I11" s="19" t="s">
-        <v>1</v>
-      </c>
+      <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="19"/>
@@ -2739,19 +2729,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="19"/>
@@ -2760,161 +2750,163 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="G14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="J14" s="19" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C15" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="19"/>
+        <v>152</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="I15" s="19"/>
-      <c r="J15" s="19" t="s">
-        <v>1</v>
-      </c>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C16" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D16" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="19" t="s">
-        <v>1</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C17" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="I18" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>1</v>
-      </c>
+      <c r="G18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="G19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C20" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>7</v>
@@ -2931,17 +2923,15 @@
         <v>92</v>
       </c>
       <c r="C21" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D21" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
@@ -2954,65 +2944,67 @@
         <v>94</v>
       </c>
       <c r="C22" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C23" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D23" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="G23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C24" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D24" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="G24" s="19"/>
-      <c r="I24" s="19" t="s">
-        <v>1</v>
-      </c>
+      <c r="I24" s="19"/>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -3020,91 +3012,89 @@
         <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C25" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D25" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="19"/>
+        <v>152</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C26" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D26" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="I26" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C27" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="19"/>
-      <c r="I27" s="19" t="s">
-        <v>1</v>
-      </c>
+      <c r="I27" s="19"/>
       <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C28" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="6">
         <v>3</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -3117,34 +3107,36 @@
         <v>126</v>
       </c>
       <c r="C29" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D29" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C30" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D30" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>7</v>
@@ -3155,22 +3147,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="C31" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D31" s="6">
+        <v>6</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="G31" s="19"/>
       <c r="I31" s="19"/>
@@ -3178,145 +3170,122 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C32" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" s="6">
         <v>6</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="19"/>
+        <v>152</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C33" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="I33" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C34" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D34" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="I34" s="19" t="s">
-        <v>1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="19"/>
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C35" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="G35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="C36" s="12">
         <v>6</v>
       </c>
-      <c r="D37" s="12">
-        <v>7</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
+      <c r="D36" s="12">
+        <v>7</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G36">
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="8">
@@ -3330,5 +3299,6 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>